--- a/21_住所録.xlsx
+++ b/21_住所録.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -423,6 +423,14 @@
     <rPh sb="4" eb="7">
       <t>カブシキガイシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○ビル2F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>㈱GKスポーツ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:H16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:H16">
   <autoFilter ref="A1:H16"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="NO">
+    <tableColumn id="1" name="NO" totalsRowLabel="集計">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="氏名"/>
@@ -498,9 +506,9 @@
     <tableColumn id="5" name="住所１"/>
     <tableColumn id="6" name="住所２"/>
     <tableColumn id="7" name="会社名"/>
-    <tableColumn id="8" name="関係"/>
+    <tableColumn id="8" name="関係" totalsRowFunction="count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -793,9 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -888,6 +894,12 @@
       <c r="E4" t="s">
         <v>43</v>
       </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" t="s">
         <v>41</v>
       </c>
@@ -945,6 +957,12 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" t="s">
         <v>41</v>
       </c>
@@ -983,6 +1001,12 @@
       </c>
       <c r="E9" t="s">
         <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -1126,9 +1150,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D14:D17 D2:D12"/>
-    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G30 E14:E16 E2:E12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H30">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D2:D12 D17 D14:D16"/>
+    <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E14:E16 F17:G30 F2:G16"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H16 H17:H30">
       <formula1>"親戚,友人,仕事"</formula1>
     </dataValidation>
   </dataValidations>
